--- a/excel/commodityDataTable_org.zgl.logic.hall.shop.data.CommodityDataTable.xlsx
+++ b/excel/commodityDataTable_org.zgl.logic.hall.shop.data.CommodityDataTable.xlsx
@@ -1,264 +1,226 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>商城物品表</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>shopId</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>describe</t>
-  </si>
-  <si>
-    <t>selling</t>
-  </si>
-  <si>
-    <t>effect</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>VIPLimitLv</t>
-  </si>
-  <si>
-    <t>integral</t>
-  </si>
-  <si>
-    <t>物品id</t>
-  </si>
-  <si>
-    <t>所属商城id</t>
-  </si>
-  <si>
-    <t>昵称</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>售价</t>
-  </si>
-  <si>
-    <t>作用</t>
-  </si>
-  <si>
-    <t>消耗货币类型</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>VIP等级限制</t>
-  </si>
-  <si>
-    <t>积分数量</t>
-  </si>
-  <si>
-    <t>10钻石=30万金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30钻石=90万金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50钻石=150万金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100钻石=300万金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300钻石=900万金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000钻石=3000万金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100元=100钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300元=300钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100元话费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>换牌卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>踢人卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>喇叭卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摩托车(30天)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大众速腾(30天)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝马(30天)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>路虎(30天)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰博基尼(30天)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保时捷(30天)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宾利(30天)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法拉利(30天)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>布加迪(30天)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP金卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP银卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP铜卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000万</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100万</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10万</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果7P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米MIX2S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10元=10钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首充送6钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30元=30钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50元=50钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000元=1000钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首充送10钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首充送20钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首充送金卡5张</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首充送金卡1张</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首充送金卡20张</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>consumeType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1，rmb
 2，游戏币
 3，兑换券4.钻石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>shopId</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>selling</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>consumeType</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>VIPLimitLv</t>
+  </si>
+  <si>
+    <t>integral</t>
+  </si>
+  <si>
+    <t>物品id</t>
+  </si>
+  <si>
+    <t>所属商城id</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>售价</t>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t>消耗货币类型</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>VIP等级限制</t>
+  </si>
+  <si>
+    <t>积分数量</t>
+  </si>
+  <si>
+    <t>10钻石=30万金币</t>
+  </si>
+  <si>
+    <t>30钻石=90万金币</t>
+  </si>
+  <si>
+    <t>50钻石=150万金币</t>
+  </si>
+  <si>
+    <t>100钻石=300万金币</t>
+  </si>
+  <si>
+    <t>300钻石=900万金币</t>
+  </si>
+  <si>
+    <t>1000钻石=3000万金币</t>
+  </si>
+  <si>
+    <t>摩托车(30天)</t>
+  </si>
+  <si>
+    <t>大众速腾(30天)</t>
+  </si>
+  <si>
+    <t>宝马(30天)</t>
+  </si>
+  <si>
+    <t>路虎(30天)</t>
+  </si>
+  <si>
+    <t>兰博基尼(30天)</t>
+  </si>
+  <si>
+    <t>保时捷(30天)</t>
+  </si>
+  <si>
+    <t>宾利(30天)</t>
+  </si>
+  <si>
+    <t>法拉利(30天)</t>
+  </si>
+  <si>
+    <t>布加迪(30天)</t>
+  </si>
+  <si>
+    <t>VIP金卡</t>
+  </si>
+  <si>
+    <t>VIP银卡</t>
+  </si>
+  <si>
+    <t>VIP铜卡</t>
+  </si>
+  <si>
+    <t>1000万</t>
+  </si>
+  <si>
+    <t>100万</t>
+  </si>
+  <si>
+    <t>10万</t>
+  </si>
+  <si>
+    <t>换牌卡</t>
+  </si>
+  <si>
+    <t>踢人卡</t>
+  </si>
+  <si>
+    <t>喇叭卡</t>
+  </si>
+  <si>
+    <t>10元话费</t>
+  </si>
+  <si>
+    <t>50元话费</t>
+  </si>
+  <si>
+    <t>100元话费</t>
+  </si>
+  <si>
+    <t>苹果X</t>
+  </si>
+  <si>
+    <t>苹果7P</t>
+  </si>
+  <si>
+    <t>小米MIX2S</t>
+  </si>
+  <si>
+    <t>10元=10钻石</t>
+  </si>
+  <si>
+    <t>首充送6钻石</t>
+  </si>
+  <si>
+    <t>30元=30钻石</t>
+  </si>
+  <si>
+    <t>首充送10钻石</t>
+  </si>
+  <si>
+    <t>50元=50钻石</t>
+  </si>
+  <si>
+    <t>首充送20钻石</t>
+  </si>
+  <si>
+    <t>100元=100钻石</t>
+  </si>
+  <si>
+    <t>首充送金卡1张</t>
+  </si>
+  <si>
+    <t>300元=300钻石</t>
+  </si>
+  <si>
+    <t>首充送金卡5张</t>
+  </si>
+  <si>
+    <t>1000元=1000钻石</t>
+  </si>
+  <si>
+    <t>首充送金卡20张</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,26 +232,348 @@
       <sz val="11.3"/>
       <color rgb="FF9876AA"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -297,9 +581,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -314,17 +840,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -582,19 +1152,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
@@ -602,81 +1172,81 @@
     <col min="4" max="4" width="31.5" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57.75" customHeight="1">
+    <row r="1" ht="57.75" customHeight="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -687,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -719,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -751,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -783,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -815,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -847,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -879,7 +1449,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -911,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -943,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -975,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1007,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1039,7 +1609,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1071,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1103,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1135,7 +1705,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1167,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1176,7 +1746,7 @@
         <v>2000</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1199,7 +1769,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1208,7 +1778,7 @@
         <v>800</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1231,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1240,7 +1810,7 @@
         <v>300</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1263,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1295,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1327,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1359,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1391,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1423,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1455,7 +2025,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1487,7 +2057,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1519,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1682,7 +2252,7 @@
         <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E35">
         <v>30</v>
@@ -1711,10 +2281,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -1743,10 +2313,10 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -1775,10 +2345,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E38">
         <v>300</v>
@@ -1807,10 +2377,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E39">
         <v>1000</v>
@@ -1835,8 +2405,8 @@
   <sortState ref="A4:A56">
     <sortCondition ref="A4"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>